--- a/sofaplayer/La_Liga/Sevilla_stats.xlsx
+++ b/sofaplayer/La_Liga/Sevilla_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>946381</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6722222222222</v>
+        <v>6.6473684210526</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>1145</v>
+        <v>1226</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,22 +1409,22 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5221</v>
+        <v>7.6629</v>
       </c>
       <c r="L3" t="n">
-        <v>190.83333333333</v>
+        <v>204.33333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>15.789473684211</v>
+        <v>14.634146341463</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.28005633</v>
+        <v>0.29392703</v>
       </c>
       <c r="AB3" t="n">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,28 +1469,28 @@
         <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AF3" t="n">
-        <v>60.846560846561</v>
+        <v>61.386138613861</v>
       </c>
       <c r="AG3" t="n">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>27.272727272727</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS3" t="n">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1535,25 +1535,25 @@
         <v>53.333333333333</v>
       </c>
       <c r="BA3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BB3" t="n">
-        <v>35.714285714286</v>
+        <v>35.507246376812</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
-        <v>28.333333333333</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BE3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BF3" t="n">
-        <v>42.424242424242</v>
+        <v>41.333333333333</v>
       </c>
       <c r="BG3" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="BH3" t="n">
         <v>19</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="BJ3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BK3" t="n">
         <v>1</v>
@@ -1577,28 +1577,28 @@
         <v>2</v>
       </c>
       <c r="BO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>120.1</v>
+        <v>126.3</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
         <v>8</v>
       </c>
       <c r="BT3" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW3" t="n">
         <v>2</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CA3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CB3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CC3" t="n">
         <v>8</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK3" t="n">
         <v>4</v>
@@ -1673,10 +1673,10 @@
         <v>11</v>
       </c>
       <c r="CU3" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="CV3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DA3" t="n">
         <v>2</v>
       </c>
       <c r="DB3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="DG3" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ3" t="n">
         <v>2146851</v>
@@ -1747,16 +1747,16 @@
         <v>268903</v>
       </c>
       <c r="E4" t="n">
-        <v>7.1</v>
+        <v>6.9666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0.3922</v>
       </c>
       <c r="L4" t="n">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -1813,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06097744</v>
+        <v>0.0652157</v>
       </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
-        <v>84.09090909090899</v>
+        <v>78.846153846154</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>1</v>
@@ -1858,49 +1858,49 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
         <v>3</v>
       </c>
       <c r="AR4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>52.380952380952</v>
+      </c>
+      <c r="BC4" t="n">
         <v>8</v>
       </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BD4" t="n">
         <v>50</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>42.857142857143</v>
       </c>
       <c r="BE4" t="n">
         <v>3</v>
@@ -1909,13 +1909,13 @@
         <v>60</v>
       </c>
       <c r="BG4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>14.2</v>
+        <v>20.9</v>
       </c>
       <c r="BR4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1996,40 +1996,40 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
         <v>3</v>
       </c>
-      <c r="CK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>2</v>
-      </c>
       <c r="CS4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CT4" t="n">
         <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CV4" t="n">
         <v>2</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,16 +2062,16 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DG4" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ4" t="n">
         <v>2632450</v>
@@ -2103,16 +2103,16 @@
         <v>1018190</v>
       </c>
       <c r="E5" t="n">
-        <v>6.4352941176471</v>
+        <v>6.4388888888889</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>4.3474</v>
       </c>
       <c r="L5" t="n">
-        <v>325.66666666667</v>
+        <v>332.33333333333</v>
       </c>
       <c r="M5" t="n">
         <v>26</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.39068696</v>
+        <v>0.39085346</v>
       </c>
       <c r="AB5" t="n">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2181,19 +2181,19 @@
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.19512195122</v>
+        <v>72.641509433962</v>
       </c>
       <c r="AG5" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="n">
         <v>48</v>
@@ -2220,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>4</v>
@@ -2247,31 +2247,31 @@
         <v>23.333333333333</v>
       </c>
       <c r="BA5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BB5" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="BC5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD5" t="n">
-        <v>32.038834951456</v>
+        <v>32.380952380952</v>
       </c>
       <c r="BE5" t="n">
         <v>14</v>
       </c>
       <c r="BF5" t="n">
-        <v>36.842105263158</v>
+        <v>35.897435897436</v>
       </c>
       <c r="BG5" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="BH5" t="n">
         <v>19</v>
       </c>
       <c r="BI5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ5" t="n">
         <v>3</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>109.4</v>
+        <v>115.9</v>
       </c>
       <c r="BR5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
       </c>
       <c r="BT5" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="CB5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CC5" t="n">
         <v>1</v>
@@ -2385,10 +2385,10 @@
         <v>4</v>
       </c>
       <c r="CU5" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="CV5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="DG5" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>818986</v>
       </c>
       <c r="E6" t="n">
-        <v>6.83125</v>
+        <v>6.8176470588235</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>1249</v>
+        <v>1339</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.63969216</v>
+        <v>2.64975986</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020</v>
+        <v>1072</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
@@ -2537,40 +2537,40 @@
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="AF6" t="n">
-        <v>84.430176565008</v>
+        <v>83.255813953488</v>
       </c>
       <c r="AG6" t="n">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="AH6" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AI6" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AJ6" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK6" t="n">
         <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>58.823529411765</v>
+        <v>54.545454545455</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>31.506849315068</v>
+        <v>31.168831168831</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -2579,10 +2579,10 @@
         <v>73</v>
       </c>
       <c r="AS6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AU6" t="n">
         <v>1</v>
@@ -2603,34 +2603,34 @@
         <v>52.631578947368</v>
       </c>
       <c r="BA6" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BB6" t="n">
-        <v>54.794520547945</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BC6" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BD6" t="n">
-        <v>57.936507936508</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BE6" t="n">
         <v>7</v>
       </c>
       <c r="BF6" t="n">
-        <v>35</v>
+        <v>31.818181818182</v>
       </c>
       <c r="BG6" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="BH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" t="n">
         <v>4</v>
@@ -2645,22 +2645,22 @@
         <v>3</v>
       </c>
       <c r="BO6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>109.3</v>
+        <v>115.9</v>
       </c>
       <c r="BR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS6" t="n">
         <v>1</v>
       </c>
       <c r="BT6" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="CC6" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CD6" t="n">
         <v>35</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK6" t="n">
         <v>3</v>
@@ -2738,13 +2738,13 @@
         <v>19</v>
       </c>
       <c r="CT6" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="CU6" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CV6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="DA6" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DB6" t="n">
-        <v>80</v>
+        <v>81.034482758621</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="DG6" t="n">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>875890</v>
       </c>
       <c r="E7" t="n">
-        <v>6.8625</v>
+        <v>6.8294117647059</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>1.0748</v>
       </c>
       <c r="L7" t="n">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="M7" t="n">
         <v>13</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.57407558</v>
+        <v>0.5740757399999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
@@ -2893,16 +2893,16 @@
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF7" t="n">
-        <v>84.57711442786101</v>
+        <v>83.82352941176499</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI7" t="n">
         <v>112</v>
@@ -2914,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>58.333333333333</v>
+        <v>53.846153846154</v>
       </c>
       <c r="AM7" t="n">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>58</v>
       </c>
       <c r="BB7" t="n">
-        <v>60.416666666667</v>
+        <v>59.183673469388</v>
       </c>
       <c r="BC7" t="n">
         <v>54</v>
@@ -2974,10 +2974,10 @@
         <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>57.142857142857</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG7" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BH7" t="n">
         <v>1</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>109.8</v>
+        <v>116.1</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="CC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CD7" t="n">
         <v>7</v>
@@ -3097,10 +3097,10 @@
         <v>12</v>
       </c>
       <c r="CU7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CV7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA7" t="n">
         <v>8</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="DG7" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>960006</v>
       </c>
       <c r="E9" t="n">
-        <v>6.85</v>
+        <v>6.8380952380952</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>1589</v>
+        <v>1670</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0.6857</v>
       </c>
       <c r="L9" t="n">
-        <v>1589</v>
+        <v>1670</v>
       </c>
       <c r="M9" t="n">
         <v>11</v>
@@ -3593,10 +3593,10 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.12383076</v>
+        <v>1.17117316</v>
       </c>
       <c r="AB9" t="n">
-        <v>1064</v>
+        <v>1103</v>
       </c>
       <c r="AC9" t="n">
         <v>5</v>
@@ -3605,28 +3605,28 @@
         <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="AF9" t="n">
-        <v>81.68674698795201</v>
+        <v>81.47713950762</v>
       </c>
       <c r="AG9" t="n">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="AH9" t="n">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AI9" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AJ9" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>49.450549450549</v>
       </c>
       <c r="AM9" t="n">
         <v>3</v>
@@ -3635,22 +3635,22 @@
         <v>17.647058823529</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -3671,31 +3671,31 @@
         <v>63.636363636364</v>
       </c>
       <c r="BA9" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BB9" t="n">
-        <v>50</v>
+        <v>49.438202247191</v>
       </c>
       <c r="BC9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BD9" t="n">
-        <v>48.148148148148</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BE9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF9" t="n">
-        <v>53.225806451613</v>
+        <v>53.125</v>
       </c>
       <c r="BG9" t="n">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="BH9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BI9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ9" t="n">
         <v>6</v>
@@ -3713,22 +3713,22 @@
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>137</v>
+        <v>143.6</v>
       </c>
       <c r="BR9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS9" t="n">
         <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="CB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC9" t="n">
         <v>69</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK9" t="n">
         <v>5</v>
@@ -3809,10 +3809,10 @@
         <v>17</v>
       </c>
       <c r="CU9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="CV9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="DA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DB9" t="n">
-        <v>61.111111111111</v>
+        <v>62.162162162162</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="DG9" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,65 +3883,65 @@
         <v>799054</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6736842105263</v>
+        <v>6.725</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1248</v>
+        <v>1309</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.0684</v>
+      </c>
+      <c r="L10" t="n">
+        <v>436.33333333333</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>23.076923076923</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>624</v>
-      </c>
-      <c r="M10" t="n">
-        <v>12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.83779218</v>
+        <v>0.85083138</v>
       </c>
       <c r="AB10" t="n">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
@@ -3961,22 +3961,22 @@
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.929889298893</v>
+        <v>88.628158844765</v>
       </c>
       <c r="AG10" t="n">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="AH10" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AI10" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AJ10" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -3985,13 +3985,13 @@
         <v>63.636363636364</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>42.857142857143</v>
+        <v>43.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>24</v>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="AR10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AS10" t="n">
         <v>4</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>33.333333333333</v>
+        <v>40</v>
       </c>
       <c r="BA10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>46.95652173913</v>
+        <v>47.413793103448</v>
       </c>
       <c r="BC10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BD10" t="n">
-        <v>53.012048192771</v>
+        <v>53.571428571429</v>
       </c>
       <c r="BE10" t="n">
         <v>10</v>
@@ -4045,7 +4045,7 @@
         <v>31.25</v>
       </c>
       <c r="BG10" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="BH10" t="n">
         <v>25</v>
@@ -4069,22 +4069,22 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>126.8</v>
+        <v>134.5</v>
       </c>
       <c r="BR10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA10" t="n">
         <v>5</v>
@@ -4111,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="CC10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CD10" t="n">
         <v>16</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -4159,10 +4159,10 @@
         <v>13</v>
       </c>
       <c r="CS10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CT10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CU10" t="n">
         <v>61</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="DG10" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>68332</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7</v>
+        <v>6.695</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>1320</v>
+        <v>1410</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>0.5785</v>
       </c>
       <c r="L11" t="n">
-        <v>1320</v>
+        <v>1410</v>
       </c>
       <c r="M11" t="n">
         <v>15</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.24300687</v>
+        <v>0.26671887</v>
       </c>
       <c r="AB11" t="n">
-        <v>851</v>
+        <v>884</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,28 +4317,28 @@
         <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>89.37784522003</v>
       </c>
       <c r="AG11" t="n">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="AH11" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AI11" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL11" t="n">
-        <v>55.737704918033</v>
+        <v>54.6875</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
         <v>16.666666666667</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -4362,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU11" t="n">
         <v>3</v>
@@ -4383,37 +4383,37 @@
         <v>44.444444444444</v>
       </c>
       <c r="BA11" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BB11" t="n">
-        <v>49.586776859504</v>
+        <v>48.837209302326</v>
       </c>
       <c r="BC11" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BD11" t="n">
-        <v>43.90243902439</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BE11" t="n">
         <v>24</v>
       </c>
       <c r="BF11" t="n">
-        <v>61.538461538462</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG11" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BH11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -4425,22 +4425,22 @@
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>127.3</v>
+        <v>133.9</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="CC11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK11" t="n">
         <v>4</v>
@@ -4521,10 +4521,10 @@
         <v>6</v>
       </c>
       <c r="CU11" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CV11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="DA11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="DB11" t="n">
-        <v>75</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="DG11" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="DH11" t="n">
         <v>2</v>
       </c>
       <c r="DI11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DJ11" t="n">
         <v>2146839</v>
@@ -4951,16 +4951,16 @@
         <v>859021</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7</v>
+        <v>6.6894736842105</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>1.068</v>
       </c>
       <c r="L13" t="n">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="M13" t="n">
         <v>14</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.33021559</v>
+        <v>0.33298886</v>
       </c>
       <c r="AB13" t="n">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,28 +5029,28 @@
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AF13" t="n">
-        <v>86.769759450172</v>
+        <v>86.68941979522199</v>
       </c>
       <c r="AG13" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AH13" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AI13" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AJ13" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL13" t="n">
-        <v>57.692307692308</v>
+        <v>58.490566037736</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>28</v>
@@ -5068,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AS13" t="n">
         <v>14</v>
@@ -5098,13 +5098,13 @@
         <v>72</v>
       </c>
       <c r="BB13" t="n">
-        <v>48.648648648649</v>
+        <v>48.322147651007</v>
       </c>
       <c r="BC13" t="n">
         <v>60</v>
       </c>
       <c r="BD13" t="n">
-        <v>47.244094488189</v>
+        <v>46.875</v>
       </c>
       <c r="BE13" t="n">
         <v>12</v>
@@ -5113,10 +5113,10 @@
         <v>57.142857142857</v>
       </c>
       <c r="BG13" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BH13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI13" t="n">
         <v>25</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>120.6</v>
+        <v>127.1</v>
       </c>
       <c r="BR13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>16</v>
       </c>
       <c r="CC13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CD13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="CU13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CV13" t="n">
         <v>9</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DA13" t="n">
         <v>19</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="DG13" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>1010655</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7105263157895</v>
+        <v>6.525</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.06554167</v>
+        <v>2.11538467</v>
       </c>
       <c r="AB14" t="n">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
@@ -5385,22 +5385,22 @@
         <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF14" t="n">
-        <v>82.251908396947</v>
+        <v>82.230623818526</v>
       </c>
       <c r="AG14" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AH14" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AI14" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AJ14" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK14" t="n">
         <v>23</v>
@@ -5454,25 +5454,25 @@
         <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>54.301075268817</v>
+        <v>53.439153439153</v>
       </c>
       <c r="BC14" t="n">
         <v>87</v>
       </c>
       <c r="BD14" t="n">
-        <v>57.236842105263</v>
+        <v>56.493506493506</v>
       </c>
       <c r="BE14" t="n">
         <v>14</v>
       </c>
       <c r="BF14" t="n">
-        <v>41.176470588235</v>
+        <v>40</v>
       </c>
       <c r="BG14" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI14" t="n">
         <v>29</v>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>127.5</v>
+        <v>130.5</v>
       </c>
       <c r="BR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>46</v>
       </c>
       <c r="CU14" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="CV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>65.853658536585</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="DG14" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>997033</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8388888888889</v>
+        <v>6.8157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0.9674</v>
       </c>
       <c r="L15" t="n">
-        <v>438</v>
+        <v>442.5</v>
       </c>
       <c r="M15" t="n">
         <v>14</v>
@@ -5729,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.71493113</v>
+        <v>0.7175556400000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,22 +5741,22 @@
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF15" t="n">
-        <v>81.230769230769</v>
+        <v>81.09756097560999</v>
       </c>
       <c r="AG15" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AH15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
@@ -5810,13 +5810,13 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>53.289473684211</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BC15" t="n">
         <v>67</v>
       </c>
       <c r="BD15" t="n">
-        <v>54.032258064516</v>
+        <v>53.6</v>
       </c>
       <c r="BE15" t="n">
         <v>14</v>
@@ -5825,10 +5825,10 @@
         <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI15" t="n">
         <v>43</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="BK15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>123.1</v>
+        <v>129.5</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>27</v>
       </c>
       <c r="CU15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CV15" t="n">
         <v>14</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DG15" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>6</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -7078,267 +7078,265 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Miguel Sierra</t>
+          <t>César Azpilicueta</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1518564</v>
+        <v>21555</v>
       </c>
       <c r="E19" t="n">
-        <v>6.625</v>
+        <v>6.88</v>
       </c>
       <c r="F19" t="n">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>778</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.24070569</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>624</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>394</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>87.750556792873</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>449</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>267</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>127</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>43.90243902439</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>46.428571428571</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>90</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>63</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1798</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.0178795</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>49</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>55</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>27</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
         <v>8</v>
       </c>
-      <c r="AI19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
+      <c r="CK19" t="n">
         <v>2</v>
       </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>69.230769230769</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81.818181818182</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
       <c r="CL19" t="n">
         <v>0</v>
       </c>
@@ -7358,19 +7356,19 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS19" t="n">
         <v>2</v>
       </c>
       <c r="CT19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CU19" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="CV19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="DA19" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DB19" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,19 +7398,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="DG19" t="n">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2481264</v>
+        <v>2257860</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,23 +7432,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>César Azpilicueta</t>
+          <t>Tanguy Nianzou</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21555</v>
+        <v>1003007</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8666666666667</v>
+        <v>6.625</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>723</v>
+        <v>395</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7458,12 +7456,14 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.0974</v>
+      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -7499,16 +7499,16 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.14274589</v>
+        <v>0.02302677</v>
       </c>
       <c r="AB20" t="n">
-        <v>606</v>
+        <v>261</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7517,94 +7517,94 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>385</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="n">
-        <v>87.89954337899501</v>
+        <v>88.648648648649</v>
       </c>
       <c r="AG20" t="n">
-        <v>438</v>
+        <v>185</v>
       </c>
       <c r="AH20" t="n">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>44.736842105263</v>
+        <v>53.846153846154</v>
       </c>
       <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS20" t="n">
         <v>2</v>
       </c>
-      <c r="AN20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AT20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="BD20" t="n">
+        <v>54.545454545455</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>70.58823529411799</v>
+      </c>
+      <c r="BG20" t="n">
         <v>30</v>
       </c>
-      <c r="AS20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>37</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>48.051948051948</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>56.521739130435</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>87</v>
-      </c>
       <c r="BH20" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BI20" t="n">
         <v>6</v>
@@ -7625,52 +7625,52 @@
         <v>1</v>
       </c>
       <c r="BO20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>61.8</v>
+        <v>53</v>
       </c>
       <c r="BR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD20" t="n">
         <v>9</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>53</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>25</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>8</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>8</v>
       </c>
       <c r="CK20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7715,16 +7715,16 @@
         <v>1</v>
       </c>
       <c r="CS20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="CV20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7736,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="DA20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="DB20" t="n">
-        <v>61.111111111111</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,19 +7754,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="DG20" t="n">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2257860</v>
+        <v>2257863</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7788,23 +7788,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tanguy Nianzou</t>
+          <t>Marcão</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1003007</v>
+        <v>840951</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5714285714286</v>
+        <v>6.6461538461538</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>325</v>
+        <v>943</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7813,19 +7813,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0974</v>
+        <v>0.7073</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0196967</v>
+        <v>0.07020195</v>
       </c>
       <c r="AB21" t="n">
-        <v>237</v>
+        <v>610</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7873,182 +7873,182 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="AF21" t="n">
-        <v>90.22988505747099</v>
+        <v>87.33905579399099</v>
       </c>
       <c r="AG21" t="n">
-        <v>174</v>
+        <v>466</v>
       </c>
       <c r="AH21" t="n">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="AI21" t="n">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>44.827586206897</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>59</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>55.855855855856</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>52.941176470588</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>59</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>29</v>
+      </c>
+      <c r="CD21" t="n">
         <v>12</v>
       </c>
-      <c r="AL21" t="n">
-        <v>52.173913043478</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>58.139534883721</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>73.333333333333</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>46</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>17</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK21" t="n">
         <v>2</v>
       </c>
-      <c r="CA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
       <c r="CL21" t="n">
         <v>0</v>
       </c>
@@ -8071,16 +8071,16 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU21" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="CV21" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,16 +8092,16 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="DA21" t="n">
         <v>5</v>
       </c>
       <c r="DB21" t="n">
-        <v>50</v>
+        <v>38.461538461538</v>
       </c>
       <c r="DC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD21" t="n">
         <v>0</v>
@@ -8110,19 +8110,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="DG21" t="n">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="DH21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DI21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2257863</v>
+        <v>2146881</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,134 +8144,134 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Marcão</t>
+          <t>José Ángel Carmona</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>840951</v>
+        <v>1015240</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6461538461538</v>
+        <v>6.6636363636364</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1799</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5286999999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1799</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7.1428571428571</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.07913746</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1384</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="n">
         <v>11</v>
       </c>
-      <c r="H22" t="n">
-        <v>943</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7073</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>10</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.07020195</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>610</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
       <c r="AE22" t="n">
-        <v>407</v>
+        <v>706</v>
       </c>
       <c r="AF22" t="n">
-        <v>87.33905579399099</v>
+        <v>82.093023255814</v>
       </c>
       <c r="AG22" t="n">
-        <v>466</v>
+        <v>860</v>
       </c>
       <c r="AH22" t="n">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="AI22" t="n">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="AJ22" t="n">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>48.648648648649</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21.739130434783</v>
+      </c>
+      <c r="AO22" t="n">
         <v>26</v>
       </c>
-      <c r="AL22" t="n">
-        <v>44.827586206897</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
-      </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR22" t="n">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AT22" t="n">
         <v>59</v>
@@ -8280,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="AV22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
@@ -8289,175 +8289,175 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>100</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BA22" t="n">
+        <v>124</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>54.625550660793</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>94</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>50.267379679144</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>75</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>287</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>31</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>33</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>154</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>70</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>27</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>29</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>103</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>74</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>31</v>
+      </c>
+      <c r="DB22" t="n">
         <v>62</v>
       </c>
-      <c r="BB22" t="n">
-        <v>55.855855855856</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>35</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>27</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>52.941176470588</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>70</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>15</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>59</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>49</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>24</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>58</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>5</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>38.461538461538</v>
-      </c>
       <c r="DC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD22" t="n">
         <v>0</v>
@@ -8466,19 +8466,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="DG22" t="n">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="DH22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2146881</v>
+        <v>2146841</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,227 +8500,227 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>José Ángel Carmona</t>
+          <t>Kike Salas</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1015240</v>
+        <v>1097719</v>
       </c>
       <c r="E23" t="n">
-        <v>6.6904761904762</v>
+        <v>7.0538461538462</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1038</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8561</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1038</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.24307411</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>978</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>613</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>82.281879194631</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>745</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>401</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>212</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34.579439252336</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
         <v>20</v>
       </c>
-      <c r="H23" t="n">
-        <v>1764</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.5286999999999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1764</v>
-      </c>
-      <c r="M23" t="n">
-        <v>14</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="AO23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>94</v>
+      </c>
+      <c r="AU23" t="n">
         <v>3</v>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>7.1428571428571</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1.07823106</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1369</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>704</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>82.33918128655</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>855</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>424</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>64.179104477612</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>73.913043478261</v>
+      </c>
+      <c r="BG23" t="n">
         <v>155</v>
       </c>
-      <c r="AK23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>48.648648648649</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>21.739130434783</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>33</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
+      <c r="BH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="BR23" t="n">
         <v>13</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>44.827586206897</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>124</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>55.357142857143</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>94</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>51.086956521739</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>30</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>75</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>282</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>33</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>31</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>9</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>32</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>21</v>
-      </c>
       <c r="BS23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT23" t="n">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
       </c>
       <c r="BV23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
       </c>
       <c r="BX23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY23" t="n">
         <v>0</v>
@@ -8729,16 +8729,16 @@
         <v>7</v>
       </c>
       <c r="CA23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CB23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CC23" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="CD23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="CK23" t="n">
         <v>3</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CS23" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="CT23" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="CU23" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="CV23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8804,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="DA23" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="DB23" t="n">
-        <v>62</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,19 +8822,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="DG23" t="n">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2146841</v>
+        <v>2146847</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,47 +8856,45 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kike Salas</t>
+          <t>Federico Gattoni</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1097719</v>
+        <v>941464</v>
       </c>
       <c r="E24" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>948</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.8561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8911,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -8929,70 +8927,70 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.23629528</v>
+        <v>0.0006656</v>
       </c>
       <c r="AB24" t="n">
-        <v>936</v>
+        <v>4</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
         <v>2</v>
       </c>
-      <c r="AE24" t="n">
-        <v>597</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>82.57261410788399</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>723</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>389</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>208</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>71</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34.313725490196</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>82</v>
-      </c>
       <c r="AU24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -9001,37 +8999,37 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="BB24" t="n">
-        <v>66.94214876033099</v>
+        <v>100</v>
       </c>
       <c r="BC24" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="BF24" t="n">
-        <v>78.68852459016399</v>
+        <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="BH24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9046,55 +9044,55 @@
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>85.2</v>
+        <v>6.7</v>
       </c>
       <c r="BR24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
       </c>
       <c r="BX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY24" t="n">
         <v>0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CA24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="CD24" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9112,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="CK24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
@@ -9136,19 +9134,19 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CT24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CU24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CV24" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9160,13 +9158,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9178,19 +9176,19 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="DG24" t="n">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
       </c>
       <c r="DI24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2146847</v>
+        <v>2675447</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9929,16 +9927,16 @@
         <v>138149</v>
       </c>
       <c r="E27" t="n">
-        <v>7.1105263157895</v>
+        <v>7.065</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -9993,10 +9991,10 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02275158</v>
+        <v>0.02318214</v>
       </c>
       <c r="AB27" t="n">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -10005,28 +10003,28 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AF27" t="n">
-        <v>67.336683417085</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="AH27" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AI27" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AL27" t="n">
-        <v>36.544850498339</v>
+        <v>35.076923076923</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -10035,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" t="n">
         <v>0</v>
@@ -10044,13 +10042,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -10071,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
@@ -10083,13 +10081,13 @@
         <v>0</v>
       </c>
       <c r="BE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BG27" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -10113,22 +10111,22 @@
         <v>3</v>
       </c>
       <c r="BO27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP27" t="n">
         <v>1</v>
       </c>
       <c r="BQ27" t="n">
-        <v>135.1</v>
+        <v>141.3</v>
       </c>
       <c r="BR27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS27" t="n">
         <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -10176,13 +10174,13 @@
         <v>12</v>
       </c>
       <c r="CJ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK27" t="n">
         <v>2</v>
       </c>
       <c r="CL27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CM27" t="n">
         <v>6</v>
@@ -10191,7 +10189,7 @@
         <v>6</v>
       </c>
       <c r="CO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP27" t="n">
         <v>0</v>
@@ -10224,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10242,13 +10240,13 @@
         <v>16</v>
       </c>
       <c r="DF27" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="DG27" t="n">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="DH27" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10262,7 +10260,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>4.5608</v>
+        <v>3.993</v>
       </c>
     </row>
     <row r="28">
